--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-url-mapping/hzero-url-mapping-config-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-url-mapping/hzero-url-mapping-config-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2073,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>help_type</t>
+  </si>
+  <si>
+    <t>help_value</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
   </si>
   <si>
@@ -2109,6 +2121,12 @@
     <t>api</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>iam_menu-9</t>
   </si>
   <si>
@@ -2142,6 +2160,9 @@
     <t>URL映射配置</t>
   </si>
   <si>
+    <t>URL mapping configuration</t>
+  </si>
+  <si>
     <t>URLYSPZ</t>
   </si>
   <si>
@@ -2169,6 +2190,9 @@
     <t>URL映射配置-保存</t>
   </si>
   <si>
+    <t>URL mapping configuration - save</t>
+  </si>
+  <si>
     <t>ps</t>
   </si>
   <si>
@@ -2187,6 +2211,9 @@
     <t>URL映射配置-批量删除</t>
   </si>
   <si>
+    <t>URL mapping configuration - batch deletion</t>
+  </si>
+  <si>
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteUsr</t>
   </si>
   <si>
@@ -2208,6 +2235,9 @@
     <t>URL映射配置-目标</t>
   </si>
   <si>
+    <t>URL mapping configuration - target</t>
+  </si>
+  <si>
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id.button.target</t>
   </si>
   <si>
@@ -2220,6 +2250,9 @@
     <t>URL映射配置-新建</t>
   </si>
   <si>
+    <t>URL mapping configuration - New</t>
+  </si>
+  <si>
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list-create</t>
   </si>
   <si>
@@ -2232,6 +2265,9 @@
     <t>URL映射配置-编辑</t>
   </si>
   <si>
+    <t>URL mapping configuration - Edit</t>
+  </si>
+  <si>
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.edit</t>
   </si>
   <si>
@@ -2244,6 +2280,9 @@
     <t>URL映射配置-启用</t>
   </si>
   <si>
+    <t>URL mapping configuration - enable</t>
+  </si>
+  <si>
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.enable</t>
   </si>
   <si>
@@ -2265,6 +2304,9 @@
     <t>默认权限集</t>
   </si>
   <si>
+    <t>Default permission set</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -2286,6 +2328,9 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>iam_menu_permission-8</t>
   </si>
   <si>
@@ -2403,7 +2448,7 @@
     <t>#h_parent_role_assign_level</t>
   </si>
   <si>
-    <t>h_parent_role_assign_level_val</t>
+    <t>#h_parent_role_assign_level_val</t>
   </si>
   <si>
     <t>is_enabled</t>
@@ -2433,6 +2478,9 @@
     <t>tpl_role_name:en_US</t>
   </si>
   <si>
+    <t>role_hierarchy</t>
+  </si>
+  <si>
     <t>iam_role-8</t>
   </si>
   <si>
@@ -2445,7 +2493,7 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t>abcf</t>
+    <t/>
   </si>
   <si>
     <t>organization</t>
@@ -2463,9 +2511,6 @@
     <t>role/organization/default/administrator</t>
   </si>
   <si>
-    <t>abce</t>
-  </si>
-  <si>
     <t>iam_role-10</t>
   </si>
   <si>
@@ -2584,6 +2629,9 @@
   </si>
   <si>
     <t>HZERO菜单标签</t>
+  </si>
+  <si>
+    <t>Hzero menu label</t>
   </si>
   <si>
     <t>iam_label-9</t>
@@ -2624,7 +2672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2941,6 +2989,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3176,7 +3229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3302,6 +3355,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3887,7 +3941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,590 +4048,674 @@
       <c r="Y7" t="s">
         <v>74</v>
       </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <f>url映射插件菜单!$E$8</f>
       </c>
       <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s">
         <v>91</v>
       </c>
-      <c r="M9" t="s">
+      <c r="AC9" t="s">
         <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" t="s">
-        <v>86</v>
-      </c>
-      <c r="X9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K10">
         <f>url映射插件菜单!$E$9</f>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K12">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X12" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
         <v>114</v>
       </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X13" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X15" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X16" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S17" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X17" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S18" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X18" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K19">
         <f>url映射插件菜单!$E$10</f>
       </c>
       <c r="L19" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U19" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X19" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4725,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4626,195 +4764,348 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>145</v>
+        <v>159</v>
+      </c>
+      <c r="H7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F8">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F9">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F10">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F11">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F12">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F13">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>172</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F14">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F15">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>176</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F16">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G16" t="s">
-        <v>163</v>
+        <v>178</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F17">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F18">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>182</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F19">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F20">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>186</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F21">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>188</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F22">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>190</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F23">
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>192</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4824,7 +5115,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4863,10 +5154,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -4881,235 +5172,271 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>184</v>
-      </c>
-      <c r="O7" t="s">
-        <v>185</v>
+        <v>199</v>
+      </c>
+      <c r="O7" t="s" s="76">
+        <v>200</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="R7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="S7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="T7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>191</v>
-      </c>
-      <c r="W7" t="s" s="76">
-        <v>192</v>
+        <v>206</v>
+      </c>
+      <c r="W7" t="s" s="77">
+        <v>207</v>
       </c>
       <c r="X7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Y7" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="V8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="V9" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="W9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="J10" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M10">
         <f>角色权限!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="V10" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="W10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X10" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="Y10" t="s">
-        <v>211</v>
+        <v>226</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -5120,33 +5447,42 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" t="s" s="77">
-        <v>213</v>
-      </c>
-      <c r="E12" t="s" s="78">
+        <v>227</v>
+      </c>
+      <c r="D12" t="s" s="78">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
-      <c r="F12" t="s" s="79">
-        <v>214</v>
-      </c>
-      <c r="G12" t="s" s="80">
-        <v>215</v>
+      <c r="F12" t="s" s="80">
+        <v>229</v>
+      </c>
+      <c r="G12" t="s" s="81">
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J12" t="s" s="81">
-        <v>218</v>
+        <v>232</v>
+      </c>
+      <c r="J12" t="s" s="82">
+        <v>233</v>
+      </c>
+      <c r="K12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F13">
         <f>角色权限!$E$8</f>
@@ -5155,18 +5491,27 @@
         <f>url映射插件菜单!$E$11</f>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I13" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J13" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F14">
         <f>角色权限!$E$8</f>
@@ -5175,18 +5520,27 @@
         <f>url映射插件菜单!$E$12</f>
       </c>
       <c r="H14" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J14" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F15">
         <f>角色权限!$E$8</f>
@@ -5195,18 +5549,27 @@
         <f>url映射插件菜单!$E$13</f>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I15" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F16">
         <f>角色权限!$E$8</f>
@@ -5215,18 +5578,27 @@
         <f>url映射插件菜单!$E$14</f>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J16" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F17">
         <f>角色权限!$E$8</f>
@@ -5235,18 +5607,27 @@
         <f>url映射插件菜单!$E$15</f>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I17" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J17" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F18">
         <f>角色权限!$E$8</f>
@@ -5255,18 +5636,27 @@
         <f>url映射插件菜单!$E$16</f>
       </c>
       <c r="H18" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J18" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F19">
         <f>角色权限!$E$8</f>
@@ -5275,18 +5665,27 @@
         <f>url映射插件菜单!$E$17</f>
       </c>
       <c r="H19" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I19" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F20">
         <f>角色权限!$E$8</f>
@@ -5295,18 +5694,27 @@
         <f>url映射插件菜单!$E$18</f>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F21">
         <f>角色权限!$E$8</f>
@@ -5315,13 +5723,22 @@
         <f>url映射插件菜单!$E$19</f>
       </c>
       <c r="H21" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>237</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5331,7 +5748,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5370,101 +5787,119 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" t="s" s="82">
-        <v>232</v>
-      </c>
-      <c r="E7" t="s" s="83">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s" s="83">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="84">
+      <c r="F7" t="s" s="85">
+        <v>248</v>
+      </c>
+      <c r="G7" t="s" s="86">
         <v>233</v>
       </c>
-      <c r="G7" t="s" s="85">
-        <v>218</v>
-      </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="J7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="L7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="N7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O7" t="s">
-        <v>240</v>
+        <v>255</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -5475,33 +5910,39 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" t="s" s="86">
-        <v>249</v>
-      </c>
-      <c r="E11" t="s" s="87">
-        <v>250</v>
-      </c>
-      <c r="F11" t="s" s="88">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s" s="89">
-        <v>252</v>
-      </c>
-      <c r="H11" t="s" s="90">
-        <v>253</v>
+        <v>264</v>
+      </c>
+      <c r="D11" t="s" s="87">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s" s="88">
+        <v>266</v>
+      </c>
+      <c r="F11" t="s" s="89">
+        <v>267</v>
+      </c>
+      <c r="G11" t="s" s="90">
+        <v>268</v>
+      </c>
+      <c r="H11" t="s" s="91">
+        <v>269</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>270</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G12">
         <f>url映射插件菜单!$E$8</f>
@@ -5510,15 +5951,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G13">
         <f>url映射插件菜单!$E$9</f>
@@ -5527,15 +5974,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G14">
         <f>url映射插件菜单!$E$10</f>
@@ -5544,15 +5997,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G15">
         <f>url映射插件菜单!$E$11</f>
@@ -5561,15 +6020,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G16">
         <f>url映射插件菜单!$E$12</f>
@@ -5578,15 +6043,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G17">
         <f>url映射插件菜单!$E$13</f>
@@ -5595,15 +6066,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G18">
         <f>url映射插件菜单!$E$14</f>
@@ -5612,15 +6089,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G19">
         <f>url映射插件菜单!$E$15</f>
@@ -5629,15 +6112,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G20">
         <f>url映射插件菜单!$E$16</f>
@@ -5646,15 +6135,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I20" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G21">
         <f>url映射插件菜单!$E$17</f>
@@ -5663,15 +6158,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G22">
         <f>url映射插件菜单!$E$18</f>
@@ -5680,15 +6181,21 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G23">
         <f>url映射插件菜单!$E$19</f>
@@ -5697,7 +6204,13 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-url-mapping/hzero-url-mapping-config-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_platform/exclude_plugin_menu/plugin-url-mapping/hzero-url-mapping-config-menu.xlsx
@@ -24,12 +24,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="266">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2184,64 +2184,76 @@
     <t>iam_menu-11</t>
   </si>
   <si>
+    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-addTenant</t>
+  </si>
+  <si>
+    <t>URL映射配置-新建租户</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-addTenant</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
     <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-addUser</t>
   </si>
   <si>
+    <t>URL映射配置-新建用户</t>
+  </si>
+  <si>
+    <t>URL mapping configuration - save</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-addUser</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteTenant</t>
+  </si>
+  <si>
+    <t>URL映射配置-批量删除租户</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteTenant</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteUser</t>
+  </si>
+  <si>
+    <t>URL映射配置-批量删除</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteUser</t>
+  </si>
+  <si>
+    <t>iam_menu-15</t>
+  </si>
+  <si>
+    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-save</t>
+  </si>
+  <si>
     <t>URL映射配置-保存</t>
   </si>
   <si>
-    <t>URL mapping configuration - save</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-addUser</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteUsr</t>
-  </si>
-  <si>
-    <t>URL映射配置-批量删除</t>
-  </si>
-  <si>
-    <t>URL mapping configuration - batch deletion</t>
-  </si>
-  <si>
-    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-deleteUsr</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-save</t>
-  </si>
-  <si>
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id-save</t>
   </si>
   <si>
-    <t>iam_menu-14</t>
-  </si>
-  <si>
-    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id.button.target</t>
-  </si>
-  <si>
-    <t>URL映射配置-目标</t>
-  </si>
-  <si>
-    <t>URL mapping configuration - target</t>
-  </si>
-  <si>
-    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.detail.-id.button.target</t>
-  </si>
-  <si>
-    <t>iam_menu-15</t>
+    <t>iam_menu-16</t>
   </si>
   <si>
     <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.list-create</t>
@@ -2256,7 +2268,19 @@
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list-create</t>
   </si>
   <si>
-    <t>iam_menu-16</t>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.delete</t>
+  </si>
+  <si>
+    <t>URL映射配置-删除</t>
+  </si>
+  <si>
+    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.delete</t>
+  </si>
+  <si>
+    <t>iam_menu-18</t>
   </si>
   <si>
     <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.edit</t>
@@ -2271,7 +2295,7 @@
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.edit</t>
   </si>
   <si>
-    <t>iam_menu-17</t>
+    <t>iam_menu-19</t>
   </si>
   <si>
     <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.enable</t>
@@ -2286,16 +2310,7 @@
     <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.enable</t>
   </si>
   <si>
-    <t>iam_menu-18</t>
-  </si>
-  <si>
-    <t>hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.target</t>
-  </si>
-  <si>
-    <t>hzero.site.config|hzero.site.config.svc-governance|hzero.site.config.url-mapping-config|hzero.site.config.url-mapping-config.hadm.url-mapping-config.list.button.target</t>
-  </si>
-  <si>
-    <t>iam_menu-19</t>
+    <t>iam_menu-20</t>
   </si>
   <si>
     <t>hzero.site.config.url-mapping-config.ps.default</t>
@@ -2343,6 +2358,9 @@
     <t>hzero-admin.service-route-site-level.pageRoutes</t>
   </si>
   <si>
+    <t>542</t>
+  </si>
+  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
@@ -2358,72 +2376,48 @@
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule-user.create</t>
+    <t>hzero-admin.url-rule-user.userList</t>
   </si>
   <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule-user.detail</t>
+    <t>hzero-admin.url-rule-user.users</t>
   </si>
   <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule-user.list</t>
+    <t>hzero-admin.url-rule.create</t>
   </si>
   <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule-user.remove</t>
+    <t>hzero-admin.url-rule.detail</t>
   </si>
   <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule-user.userList</t>
+    <t>hzero-admin.url-rule.enable</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule-user.users</t>
+    <t>hzero-admin.url-rule.list</t>
   </si>
   <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule.create</t>
+    <t>hzero-admin.url-rule.remove</t>
   </si>
   <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hzero-admin.url-rule.detail</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-20</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.enable</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-21</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.list</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-22</t>
-  </si>
-  <si>
-    <t>hzero-admin.url-rule.remove</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-23</t>
-  </si>
-  <si>
     <t>hzero-admin.url-rule.update</t>
   </si>
   <si>
@@ -2493,12 +2487,12 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
+    <t>134354801085124640</t>
+  </si>
+  <si>
     <t>iam_role-9</t>
   </si>
   <si>
@@ -2550,42 +2544,6 @@
     <t>#type</t>
   </si>
   <si>
-    <t>iam_role_permission-13</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>iam_role_permission-14</t>
-  </si>
-  <si>
-    <t>iam_role_permission-15</t>
-  </si>
-  <si>
-    <t>iam_role_permission-16</t>
-  </si>
-  <si>
-    <t>iam_role_permission-17</t>
-  </si>
-  <si>
-    <t>iam_role_permission-18</t>
-  </si>
-  <si>
-    <t>iam_role_permission-19</t>
-  </si>
-  <si>
-    <t>iam_role_permission-20</t>
-  </si>
-  <si>
-    <t>iam_role_permission-21</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2638,6 +2596,27 @@
   </si>
   <si>
     <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TEST_MENU1</t>
+  </si>
+  <si>
+    <t>30625</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>TEST_MENU2</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>TEST_MENU3</t>
   </si>
   <si>
     <t>标签关系表</t>
@@ -3941,7 +3920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4136,8 +4115,9 @@
       <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <f>url映射插件菜单!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="L9" t="s">
         <v>97</v>
@@ -4195,8 +4175,9 @@
       <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <f>url映射插件菜单!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="L10" t="s">
         <v>106</v>
@@ -4249,13 +4230,17 @@
         <v>113</v>
       </c>
       <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
         <v>114</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L11" t="s">
         <v>115</v>
@@ -4266,6 +4251,9 @@
       <c r="N11" t="s">
         <v>88</v>
       </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
       <c r="Q11" t="s">
         <v>85</v>
       </c>
@@ -4288,7 +4276,7 @@
         <v>91</v>
       </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -4304,11 +4292,15 @@
       <c r="H12" t="s">
         <v>121</v>
       </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L12" t="s">
         <v>115</v>
@@ -4319,6 +4311,9 @@
       <c r="N12" t="s">
         <v>88</v>
       </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
       <c r="Q12" t="s">
         <v>85</v>
       </c>
@@ -4341,7 +4336,7 @@
         <v>91</v>
       </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -4352,16 +4347,20 @@
         <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
         <v>114</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L13" t="s">
         <v>115</v>
@@ -4372,6 +4371,9 @@
       <c r="N13" t="s">
         <v>88</v>
       </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
       <c r="Q13" t="s">
         <v>85</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
         <v>85</v>
@@ -4394,27 +4396,31 @@
         <v>91</v>
       </c>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
         <v>129</v>
       </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
       <c r="J14" t="s">
         <v>84</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L14" t="s">
         <v>115</v>
@@ -4425,6 +4431,9 @@
       <c r="N14" t="s">
         <v>88</v>
       </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
       <c r="Q14" t="s">
         <v>85</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>91</v>
       </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -4461,13 +4470,17 @@
         <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L15" t="s">
         <v>115</v>
@@ -4478,6 +4491,9 @@
       <c r="N15" t="s">
         <v>88</v>
       </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
       <c r="Q15" t="s">
         <v>85</v>
       </c>
@@ -4485,7 +4501,7 @@
         <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T15" t="s">
         <v>85</v>
@@ -4500,27 +4516,31 @@
         <v>91</v>
       </c>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>138</v>
       </c>
-      <c r="H16" t="s">
-        <v>139</v>
+      <c r="I16" t="s">
+        <v>114</v>
       </c>
       <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L16" t="s">
         <v>115</v>
@@ -4531,6 +4551,9 @@
       <c r="N16" t="s">
         <v>88</v>
       </c>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
       <c r="Q16" t="s">
         <v>85</v>
       </c>
@@ -4538,7 +4561,7 @@
         <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T16" t="s">
         <v>85</v>
@@ -4553,27 +4576,31 @@
         <v>91</v>
       </c>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
         <v>141</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>142</v>
       </c>
-      <c r="G17" t="s">
-        <v>143</v>
-      </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L17" t="s">
         <v>115</v>
@@ -4584,6 +4611,9 @@
       <c r="N17" t="s">
         <v>88</v>
       </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
       <c r="Q17" t="s">
         <v>85</v>
       </c>
@@ -4591,7 +4621,7 @@
         <v>85</v>
       </c>
       <c r="S17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T17" t="s">
         <v>85</v>
@@ -4606,27 +4636,31 @@
         <v>91</v>
       </c>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
         <v>146</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" t="s">
-        <v>129</v>
+      <c r="I18" t="s">
+        <v>114</v>
       </c>
       <c r="J18" t="s">
         <v>84</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L18" t="s">
         <v>115</v>
@@ -4637,6 +4671,9 @@
       <c r="N18" t="s">
         <v>88</v>
       </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
       <c r="Q18" t="s">
         <v>85</v>
       </c>
@@ -4659,7 +4696,7 @@
         <v>91</v>
       </c>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -4675,21 +4712,28 @@
       <c r="H19" t="s">
         <v>152</v>
       </c>
+      <c r="I19" t="s">
+        <v>114</v>
+      </c>
       <c r="J19" t="s">
         <v>84</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
       </c>
       <c r="L19" t="s">
         <v>115</v>
       </c>
       <c r="M19" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="N19" t="s">
         <v>88</v>
       </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
       <c r="Q19" t="s">
         <v>85</v>
       </c>
@@ -4697,16 +4741,13 @@
         <v>85</v>
       </c>
       <c r="S19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T19" t="s">
         <v>85</v>
       </c>
-      <c r="U19" t="s">
-        <v>155</v>
-      </c>
       <c r="V19" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="X19" t="s">
         <v>88</v>
@@ -4715,6 +4756,63 @@
         <v>91</v>
       </c>
       <c r="AC19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="n">
+        <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20" t="s">
+        <v>85</v>
+      </c>
+      <c r="U20" t="s">
+        <v>160</v>
+      </c>
+      <c r="V20" t="s">
+        <v>90</v>
+      </c>
+      <c r="X20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4725,7 +4823,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4764,22 +4862,22 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s" s="66">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="68">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s" s="69">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -4790,13 +4888,14 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8">
-        <f>url映射插件菜单!$E$19</f>
+        <v>166</v>
+      </c>
+      <c r="F8" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -4810,13 +4909,14 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9">
-        <f>url映射插件菜单!$E$19</f>
+        <v>168</v>
+      </c>
+      <c r="F9" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -4825,18 +4925,19 @@
         <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10">
-        <f>url映射插件菜单!$E$19</f>
+        <v>171</v>
+      </c>
+      <c r="F10" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
@@ -4845,18 +4946,19 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11">
-        <f>url映射插件菜单!$E$19</f>
+        <v>173</v>
+      </c>
+      <c r="F11" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
@@ -4865,18 +4967,19 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12">
-        <f>url映射插件菜单!$E$19</f>
+        <v>175</v>
+      </c>
+      <c r="F12" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -4885,18 +4988,19 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13">
-        <f>url映射插件菜单!$E$19</f>
+        <v>177</v>
+      </c>
+      <c r="F13" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
@@ -4905,18 +5009,19 @@
         <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14">
-        <f>url映射插件菜单!$E$19</f>
+        <v>179</v>
+      </c>
+      <c r="F14" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
@@ -4925,18 +5030,19 @@
         <v>91</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15">
-        <f>url映射插件菜单!$E$19</f>
+        <v>181</v>
+      </c>
+      <c r="F15" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -4945,18 +5051,19 @@
         <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16">
-        <f>url映射插件菜单!$E$19</f>
+        <v>183</v>
+      </c>
+      <c r="F16" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -4965,18 +5072,19 @@
         <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17">
-        <f>url映射插件菜单!$E$19</f>
+        <v>185</v>
+      </c>
+      <c r="F17" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -4985,18 +5093,19 @@
         <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18">
-        <f>url映射插件菜单!$E$19</f>
+        <v>187</v>
+      </c>
+      <c r="F18" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -5005,18 +5114,19 @@
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19">
-        <f>url映射插件菜单!$E$19</f>
+        <v>189</v>
+      </c>
+      <c r="F19" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
@@ -5025,86 +5135,6 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20">
-        <f>url映射插件菜单!$E$19</f>
-      </c>
-      <c r="G20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21">
-        <f>url映射插件菜单!$E$19</f>
-      </c>
-      <c r="G21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22">
-        <f>url映射插件菜单!$E$19</f>
-      </c>
-      <c r="G22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23">
-        <f>url映射插件菜单!$E$19</f>
-      </c>
-      <c r="G23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5115,7 +5145,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5154,10 +5184,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -5172,58 +5202,58 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" t="s" s="74">
+        <v>196</v>
+      </c>
+      <c r="N7" t="s" s="75">
         <v>197</v>
       </c>
-      <c r="M7" t="s" s="74">
+      <c r="O7" t="s" s="76">
         <v>198</v>
       </c>
-      <c r="N7" t="s" s="75">
+      <c r="P7" t="s">
         <v>199</v>
       </c>
-      <c r="O7" t="s" s="76">
+      <c r="Q7" t="s">
         <v>200</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>202</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>203</v>
-      </c>
-      <c r="S7" t="s">
-        <v>204</v>
-      </c>
-      <c r="T7" t="s">
-        <v>205</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>204</v>
+      </c>
+      <c r="W7" t="s" s="77">
+        <v>205</v>
+      </c>
+      <c r="X7" t="s">
         <v>206</v>
       </c>
-      <c r="W7" t="s" s="77">
+      <c r="Y7" t="s">
         <v>207</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>208</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>210</v>
       </c>
       <c r="AA7" t="s">
         <v>77</v>
@@ -5234,19 +5264,16 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" t="s">
         <v>211</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>212</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" t="s">
-        <v>215</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -5261,7 +5288,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O8" t="s">
         <v>85</v>
@@ -5282,10 +5309,10 @@
         <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="V8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="W8" t="s">
         <v>85</v>
@@ -5297,27 +5324,24 @@
         <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="s">
         <v>217</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>218</v>
       </c>
-      <c r="G9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I9" t="s">
-        <v>215</v>
-      </c>
       <c r="J9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K9" t="s">
         <v>85</v>
@@ -5329,7 +5353,7 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O9" t="s">
         <v>85</v>
@@ -5350,10 +5374,10 @@
         <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W9" t="s">
         <v>85</v>
@@ -5365,24 +5389,24 @@
         <v>91</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
         <v>221</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>222</v>
       </c>
-      <c r="G10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" t="s">
-        <v>224</v>
-      </c>
       <c r="J10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K10" t="s">
         <v>85</v>
@@ -5390,11 +5414,12 @@
       <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <f>角色权限!$E$9</f>
+        <v>0.0</v>
       </c>
       <c r="N10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O10" t="s">
         <v>85</v>
@@ -5415,19 +5440,19 @@
         <v>85</v>
       </c>
       <c r="U10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="V10" t="s">
+        <v>222</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y10" t="s">
         <v>224</v>
-      </c>
-      <c r="W10" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>226</v>
       </c>
       <c r="Z10" t="s">
         <v>85</v>
@@ -5436,7 +5461,7 @@
         <v>91</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -5447,298 +5472,37 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s" s="78">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s" s="79">
         <v>54</v>
       </c>
       <c r="F12" t="s" s="80">
+        <v>227</v>
+      </c>
+      <c r="G12" t="s" s="81">
+        <v>228</v>
+      </c>
+      <c r="H12" t="s">
         <v>229</v>
       </c>
-      <c r="G12" t="s" s="81">
+      <c r="I12" t="s">
         <v>230</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s" s="82">
         <v>231</v>
       </c>
-      <c r="I12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J12" t="s" s="82">
-        <v>233</v>
-      </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
       </c>
       <c r="M12" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G13">
-        <f>url映射插件菜单!$E$11</f>
-      </c>
-      <c r="H13" t="s">
-        <v>235</v>
-      </c>
-      <c r="I13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J13" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G14">
-        <f>url映射插件菜单!$E$12</f>
-      </c>
-      <c r="H14" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" t="s">
-        <v>236</v>
-      </c>
-      <c r="J14" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G15">
-        <f>url映射插件菜单!$E$13</f>
-      </c>
-      <c r="H15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" t="s">
-        <v>236</v>
-      </c>
-      <c r="J15" t="s">
-        <v>237</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G16">
-        <f>url映射插件菜单!$E$14</f>
-      </c>
-      <c r="H16" t="s">
-        <v>235</v>
-      </c>
-      <c r="I16" t="s">
-        <v>236</v>
-      </c>
-      <c r="J16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G17">
-        <f>url映射插件菜单!$E$15</f>
-      </c>
-      <c r="H17" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>242</v>
-      </c>
-      <c r="F18">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G18">
-        <f>url映射插件菜单!$E$16</f>
-      </c>
-      <c r="H18" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" t="s">
-        <v>236</v>
-      </c>
-      <c r="J18" t="s">
-        <v>237</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G19">
-        <f>url映射插件菜单!$E$17</f>
-      </c>
-      <c r="H19" t="s">
-        <v>235</v>
-      </c>
-      <c r="I19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J19" t="s">
-        <v>237</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G20">
-        <f>url映射插件菜单!$E$18</f>
-      </c>
-      <c r="H20" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" t="s">
-        <v>236</v>
-      </c>
-      <c r="J20" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21">
-        <f>角色权限!$E$8</f>
-      </c>
-      <c r="G21">
-        <f>url映射插件菜单!$E$19</f>
-      </c>
-      <c r="H21" t="s">
-        <v>235</v>
-      </c>
-      <c r="I21" t="s">
-        <v>236</v>
-      </c>
-      <c r="J21" t="s">
-        <v>237</v>
-      </c>
-      <c r="K21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5748,7 +5512,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5787,43 +5551,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s" s="83">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s" s="84">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="85">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s" s="86">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="L7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="M7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="O7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="P7" t="s">
         <v>77</v>
@@ -5834,25 +5598,25 @@
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="J8" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="K8" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="M8" t="s">
         <v>88</v>
@@ -5872,19 +5636,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="M9" t="s">
         <v>85</v>
@@ -5902,125 +5666,154 @@
         <v>92</v>
       </c>
     </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" t="s" s="87">
-        <v>265</v>
-      </c>
-      <c r="E11" t="s" s="88">
-        <v>266</v>
-      </c>
-      <c r="F11" t="s" s="89">
-        <v>267</v>
-      </c>
-      <c r="G11" t="s" s="90">
-        <v>268</v>
-      </c>
-      <c r="H11" t="s" s="91">
-        <v>269</v>
+      <c r="E11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
+        <v>245</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="F12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" t="s" s="87">
         <v>258</v>
       </c>
-      <c r="G12">
-        <f>url映射插件菜单!$E$8</f>
-      </c>
-      <c r="H12">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I12" t="s">
-        <v>272</v>
-      </c>
-      <c r="J12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>271</v>
-      </c>
-      <c r="F13" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13">
-        <f>url映射插件菜单!$E$9</f>
-      </c>
-      <c r="H13">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I13" t="s">
-        <v>272</v>
-      </c>
-      <c r="J13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14">
-        <f>url映射插件菜单!$E$10</f>
-      </c>
-      <c r="H14">
-        <f>菜单标签数据!$E$8</f>
+      <c r="E14" t="s" s="88">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s" s="89">
+        <v>260</v>
+      </c>
+      <c r="G14" t="s" s="90">
+        <v>261</v>
+      </c>
+      <c r="H14" t="s" s="91">
+        <v>262</v>
       </c>
       <c r="I14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15">
-        <f>url映射插件菜单!$E$11</f>
-      </c>
-      <c r="H15">
+        <v>244</v>
+      </c>
+      <c r="G15" t="n">
+        <f>url映射插件菜单!$E$8</f>
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I15" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J15" t="s">
         <v>91</v>
@@ -6031,19 +5824,21 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16">
-        <f>url映射插件菜单!$E$12</f>
-      </c>
-      <c r="H16">
+        <v>244</v>
+      </c>
+      <c r="G16" t="n">
+        <f>url映射插件菜单!$E$10</f>
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J16" t="s">
         <v>91</v>
@@ -6054,19 +5849,21 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G17">
-        <f>url映射插件菜单!$E$13</f>
-      </c>
-      <c r="H17">
+        <v>244</v>
+      </c>
+      <c r="G17" t="n">
+        <f>url映射插件菜单!$E$20</f>
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I17" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J17" t="s">
         <v>91</v>
@@ -6077,139 +5874,26 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
-      </c>
-      <c r="G18">
-        <f>url映射插件菜单!$E$14</f>
-      </c>
-      <c r="H18">
+        <v>244</v>
+      </c>
+      <c r="G18" t="n">
+        <f>url映射插件菜单!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
         <f>菜单标签数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="I18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J18" t="s">
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19">
-        <f>url映射插件菜单!$E$15</f>
-      </c>
-      <c r="H19">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I19" t="s">
-        <v>272</v>
-      </c>
-      <c r="J19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20">
-        <f>url映射插件菜单!$E$16</f>
-      </c>
-      <c r="H20">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I20" t="s">
-        <v>272</v>
-      </c>
-      <c r="J20" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G21">
-        <f>url映射插件菜单!$E$17</f>
-      </c>
-      <c r="H21">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I21" t="s">
-        <v>272</v>
-      </c>
-      <c r="J21" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22">
-        <f>url映射插件菜单!$E$18</f>
-      </c>
-      <c r="H22">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I22" t="s">
-        <v>272</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" t="s">
-        <v>258</v>
-      </c>
-      <c r="G23">
-        <f>url映射插件菜单!$E$19</f>
-      </c>
-      <c r="H23">
-        <f>菜单标签数据!$E$8</f>
-      </c>
-      <c r="I23" t="s">
-        <v>272</v>
-      </c>
-      <c r="J23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" t="s">
         <v>92</v>
       </c>
     </row>
